--- a/biology/Médecine/Muscle_dentelé_postérieur_et_inférieur/Muscle_dentelé_postérieur_et_inférieur.xlsx
+++ b/biology/Médecine/Muscle_dentelé_postérieur_et_inférieur/Muscle_dentelé_postérieur_et_inférieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_dentel%C3%A9_post%C3%A9rieur_et_inf%C3%A9rieur</t>
+          <t>Muscle_dentelé_postérieur_et_inférieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle dentelé postérieur et inférieur (m. Musculus serratus posterior inferior aussi nommé petit dentelé postérieur et inférieur ) est un muscle pair, plat et profond, situé à la partie inférieure du dos, qui permet d'abaisser les côtes et qui joue donc un rôle dans l'expiration.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_dentel%C3%A9_post%C3%A9rieur_et_inf%C3%A9rieur</t>
+          <t>Muscle_dentelé_postérieur_et_inférieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Insertions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les insertions du muscle dentelé postérieur et inférieur se répartissent :
 de leurs origines par les apophyses épineuses des vertèbres de T11/T12 à L3.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_dentel%C3%A9_post%C3%A9rieur_et_inf%C3%A9rieur</t>
+          <t>Muscle_dentelé_postérieur_et_inférieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vue latérale.Vue antérieure.Vue postérieure.Animation.Muscle dentelé postérieur et inférieur
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_dentel%C3%A9_post%C3%A9rieur_et_inf%C3%A9rieur</t>
+          <t>Muscle_dentelé_postérieur_et_inférieur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'innervation est assurée par les neuvième, dixième et onzième nerfs intercostaux, et le nerf subcostal, issus des branches ventrales des nerfs spinaux (T9-T12)[1] en provenance de la moelle spinale.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'innervation est assurée par les neuvième, dixième et onzième nerfs intercostaux, et le nerf subcostal, issus des branches ventrales des nerfs spinaux (T9-T12) en provenance de la moelle spinale.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_dentel%C3%A9_post%C3%A9rieur_et_inf%C3%A9rieur</t>
+          <t>Muscle_dentelé_postérieur_et_inférieur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dentelé postérieur et inférieur a un rôle de muscle expirateur accessoire en abaissant les arcs costaux. Il ne participe aux mouvements ventilatoires qu'en cas de besoin ventilatoire important (efforts physiques essentiellement).
 </t>
